--- a/Model/WECC generators.xlsx
+++ b/Model/WECC generators.xlsx
@@ -3736,7 +3736,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L718" sqref="A2:L718"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
